--- a/MULTIPLICACION MATRICES/RESULTADOS/Comparar_GPUS/Comparar_GPUS.xlsx
+++ b/MULTIPLICACION MATRICES/RESULTADOS/Comparar_GPUS/Comparar_GPUS.xlsx
@@ -414,7 +414,7 @@
         <v>2.2083E-05</v>
       </c>
       <c r="D2">
-        <v>5.12E-06</v>
+        <v>5.184000000000001E-06</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -456,7 +456,7 @@
         <v>0.000107083</v>
       </c>
       <c r="D5">
-        <v>5.12E-06</v>
+        <v>5.760000000000001E-06</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -470,7 +470,7 @@
         <v>3.7395E-05</v>
       </c>
       <c r="D6">
-        <v>6.08E-06</v>
+        <v>5.12E-06</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -484,7 +484,7 @@
         <v>0.000403072</v>
       </c>
       <c r="D7">
-        <v>1.0016E-05</v>
+        <v>9.216000000000001E-06</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -512,7 +512,7 @@
         <v>0.007257031000000001</v>
       </c>
       <c r="D9">
-        <v>0.000277504</v>
+        <v>0.000279552</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -526,7 +526,7 @@
         <v>0.058696927</v>
       </c>
       <c r="D10">
-        <v>0.00216816</v>
+        <v>0.002172992</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -540,7 +540,7 @@
         <v>0.596265052</v>
       </c>
       <c r="D11">
-        <v>0.020772352</v>
+        <v>0.020819968</v>
       </c>
     </row>
   </sheetData>
